--- a/output/state_grandtots_bothyears_11daysout.xlsx
+++ b/output/state_grandtots_bothyears_11daysout.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,12 +370,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>total_requested_2020</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>total_returned_2016</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_requested_2020</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -414,10 +414,10 @@
         <v>45042</v>
       </c>
       <c r="C2">
+        <v>129533</v>
+      </c>
+      <c r="D2">
         <v>28687</v>
-      </c>
-      <c r="D2">
-        <v>129533</v>
       </c>
       <c r="E2">
         <v>49655</v>
@@ -445,10 +445,10 @@
         <v>266795</v>
       </c>
       <c r="C3">
+        <v>318602</v>
+      </c>
+      <c r="D3">
         <v>266780</v>
-      </c>
-      <c r="D3">
-        <v>318602</v>
       </c>
       <c r="E3">
         <v>277162</v>
@@ -476,10 +476,10 @@
         <v>2340508</v>
       </c>
       <c r="C4">
+        <v>3284338</v>
+      </c>
+      <c r="D4">
         <v>995460</v>
-      </c>
-      <c r="D4">
-        <v>3284338</v>
       </c>
       <c r="E4">
         <v>1310818</v>
@@ -507,10 +507,10 @@
         <v>11178435</v>
       </c>
       <c r="C5">
+        <v>5080324</v>
+      </c>
+      <c r="D5">
         <v>2480093</v>
-      </c>
-      <c r="D5">
-        <v>5080324</v>
       </c>
       <c r="E5">
         <v>5080324</v>
@@ -538,10 +538,10 @@
         <v>3167702</v>
       </c>
       <c r="C6">
+        <v>1271757</v>
+      </c>
+      <c r="D6">
         <v>813678</v>
-      </c>
-      <c r="D6">
-        <v>1271757</v>
       </c>
       <c r="E6">
         <v>1271757</v>
@@ -562,107 +562,107 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CT</t>
-        </is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>21245</v>
+      </c>
+      <c r="C7">
+        <v>173228</v>
       </c>
       <c r="D7">
-        <v>627481</v>
+        <v>15703</v>
       </c>
       <c r="E7">
-        <v>411574</v>
+        <v>103597</v>
+      </c>
+      <c r="F7">
+        <v>151983</v>
+      </c>
+      <c r="G7">
+        <v>715.38</v>
+      </c>
+      <c r="H7">
+        <v>87894</v>
+      </c>
+      <c r="I7">
+        <v>559.73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="B8">
-        <v>21245</v>
+        <v>4654451</v>
       </c>
       <c r="C8">
-        <v>15703</v>
+        <v>6696516</v>
       </c>
       <c r="D8">
-        <v>173228</v>
+        <v>3217937</v>
       </c>
       <c r="E8">
-        <v>103597</v>
+        <v>4173722</v>
       </c>
       <c r="F8">
-        <v>151983</v>
+        <v>2042065</v>
       </c>
       <c r="G8">
-        <v>715.38</v>
+        <v>43.87</v>
       </c>
       <c r="H8">
-        <v>87894</v>
+        <v>955785</v>
       </c>
       <c r="I8">
-        <v>559.73</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B9">
-        <v>4654451</v>
+        <v>1298213</v>
       </c>
       <c r="C9">
-        <v>3217937</v>
+        <v>2647203</v>
       </c>
       <c r="D9">
-        <v>6696516</v>
+        <v>1198262</v>
       </c>
       <c r="E9">
-        <v>4173722</v>
+        <v>1870473</v>
       </c>
       <c r="F9">
-        <v>2042065</v>
+        <v>1348990</v>
       </c>
       <c r="G9">
-        <v>43.87</v>
+        <v>103.91</v>
       </c>
       <c r="H9">
-        <v>955785</v>
+        <v>672211</v>
       </c>
       <c r="I9">
-        <v>29.7</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>HI</t>
         </is>
       </c>
       <c r="B10">
-        <v>1298213</v>
-      </c>
-      <c r="C10">
-        <v>1198262</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>2647203</v>
-      </c>
-      <c r="E10">
-        <v>1870473</v>
-      </c>
-      <c r="F10">
-        <v>1348990</v>
-      </c>
-      <c r="G10">
-        <v>103.91</v>
-      </c>
-      <c r="H10">
-        <v>672211</v>
-      </c>
-      <c r="I10">
-        <v>56.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -675,10 +675,10 @@
         <v>540549</v>
       </c>
       <c r="C11">
+        <v>820240</v>
+      </c>
+      <c r="D11">
         <v>405546</v>
-      </c>
-      <c r="D11">
-        <v>820240</v>
       </c>
       <c r="E11">
         <v>609019</v>
@@ -706,10 +706,10 @@
         <v>144138</v>
       </c>
       <c r="C12">
+        <v>428347</v>
+      </c>
+      <c r="D12">
         <v>112291</v>
-      </c>
-      <c r="D12">
-        <v>428347</v>
       </c>
       <c r="E12">
         <v>233679</v>
@@ -737,10 +737,10 @@
         <v>960015</v>
       </c>
       <c r="C13">
+        <v>2343725</v>
+      </c>
+      <c r="D13">
         <v>697072</v>
-      </c>
-      <c r="D13">
-        <v>2343725</v>
       </c>
       <c r="E13">
         <v>874521</v>
@@ -761,448 +761,448 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="B14">
-        <v>302252</v>
-      </c>
-      <c r="C14">
-        <v>204584</v>
+        <v>414548</v>
       </c>
       <c r="D14">
-        <v>566120</v>
-      </c>
-      <c r="E14">
-        <v>228913</v>
-      </c>
-      <c r="F14">
-        <v>263868</v>
-      </c>
-      <c r="G14">
-        <v>87.3</v>
-      </c>
-      <c r="H14">
-        <v>24329</v>
-      </c>
-      <c r="I14">
-        <v>11.89</v>
+        <v>375812</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="B15">
-        <v>296152</v>
+        <v>302252</v>
       </c>
       <c r="C15">
-        <v>296124</v>
+        <v>566120</v>
       </c>
       <c r="D15">
-        <v>502791</v>
+        <v>204584</v>
       </c>
       <c r="E15">
-        <v>502791</v>
+        <v>228913</v>
       </c>
       <c r="F15">
-        <v>206639</v>
+        <v>263868</v>
       </c>
       <c r="G15">
-        <v>69.77</v>
+        <v>87.3</v>
       </c>
       <c r="H15">
-        <v>206667</v>
+        <v>24329</v>
       </c>
       <c r="I15">
-        <v>69.79000000000001</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="B16">
-        <v>456737</v>
+        <v>296152</v>
       </c>
       <c r="C16">
-        <v>357964</v>
+        <v>502791</v>
       </c>
       <c r="D16">
-        <v>1634824</v>
+        <v>296124</v>
       </c>
       <c r="E16">
-        <v>799532</v>
+        <v>502791</v>
       </c>
       <c r="F16">
-        <v>1178087</v>
+        <v>206639</v>
       </c>
       <c r="G16">
-        <v>257.94</v>
+        <v>69.77</v>
       </c>
       <c r="H16">
-        <v>441568</v>
+        <v>206667</v>
       </c>
       <c r="I16">
-        <v>123.36</v>
+        <v>69.79000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="B17">
-        <v>189054</v>
+        <v>456737</v>
       </c>
       <c r="C17">
-        <v>136150</v>
+        <v>1634824</v>
       </c>
       <c r="D17">
-        <v>402352</v>
+        <v>357964</v>
       </c>
       <c r="E17">
-        <v>271863</v>
+        <v>799532</v>
       </c>
       <c r="F17">
-        <v>213298</v>
+        <v>1178087</v>
       </c>
       <c r="G17">
-        <v>112.82</v>
+        <v>257.94</v>
       </c>
       <c r="H17">
-        <v>135713</v>
+        <v>441568</v>
       </c>
       <c r="I17">
-        <v>99.68000000000001</v>
+        <v>123.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="B18">
-        <v>1066154</v>
+        <v>189054</v>
       </c>
       <c r="C18">
-        <v>659190</v>
+        <v>402352</v>
       </c>
       <c r="D18">
-        <v>3054940</v>
+        <v>136150</v>
       </c>
       <c r="E18">
-        <v>1925701</v>
+        <v>271863</v>
       </c>
       <c r="F18">
-        <v>1988786</v>
+        <v>213298</v>
       </c>
       <c r="G18">
-        <v>186.54</v>
+        <v>112.82</v>
       </c>
       <c r="H18">
-        <v>1266511</v>
+        <v>135713</v>
       </c>
       <c r="I18">
-        <v>192.13</v>
+        <v>99.68000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="B19">
-        <v>276138</v>
+        <v>1066154</v>
       </c>
       <c r="C19">
-        <v>276105</v>
+        <v>3054940</v>
       </c>
       <c r="D19">
-        <v>1121512</v>
+        <v>659190</v>
       </c>
       <c r="E19">
-        <v>1121512</v>
+        <v>1925701</v>
       </c>
       <c r="F19">
-        <v>845374</v>
+        <v>1988786</v>
       </c>
       <c r="G19">
-        <v>306.14</v>
+        <v>186.54</v>
       </c>
       <c r="H19">
-        <v>845407</v>
+        <v>1266511</v>
       </c>
       <c r="I19">
-        <v>306.19</v>
+        <v>192.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="B20">
-        <v>325466</v>
+        <v>276138</v>
       </c>
       <c r="C20">
-        <v>178201</v>
+        <v>1121512</v>
       </c>
       <c r="D20">
-        <v>632967</v>
+        <v>276105</v>
       </c>
       <c r="E20">
-        <v>255748</v>
+        <v>1121512</v>
       </c>
       <c r="F20">
-        <v>307501</v>
+        <v>845374</v>
       </c>
       <c r="G20">
-        <v>94.48</v>
+        <v>306.14</v>
       </c>
       <c r="H20">
-        <v>77547</v>
+        <v>845407</v>
       </c>
       <c r="I20">
-        <v>43.52</v>
+        <v>306.19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B21">
-        <v>1548337</v>
+        <v>325466</v>
       </c>
       <c r="C21">
-        <v>1443495</v>
+        <v>632967</v>
       </c>
       <c r="D21">
-        <v>2413084</v>
+        <v>178201</v>
       </c>
       <c r="E21">
-        <v>2401839</v>
+        <v>255748</v>
       </c>
       <c r="F21">
-        <v>864747</v>
+        <v>307501</v>
       </c>
       <c r="G21">
-        <v>55.85</v>
+        <v>94.48</v>
       </c>
       <c r="H21">
-        <v>958344</v>
+        <v>77547</v>
       </c>
       <c r="I21">
-        <v>66.39</v>
+        <v>43.52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ND</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="B22">
-        <v>80380</v>
+        <v>1548337</v>
       </c>
       <c r="C22">
-        <v>50147</v>
+        <v>2413084</v>
       </c>
       <c r="D22">
-        <v>204251</v>
+        <v>1443495</v>
       </c>
       <c r="E22">
-        <v>125191</v>
+        <v>2401839</v>
       </c>
       <c r="F22">
-        <v>123871</v>
+        <v>864747</v>
       </c>
       <c r="G22">
-        <v>154.11</v>
+        <v>55.85</v>
       </c>
       <c r="H22">
-        <v>75044</v>
+        <v>958344</v>
       </c>
       <c r="I22">
-        <v>149.65</v>
+        <v>66.39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>ND</t>
         </is>
       </c>
       <c r="B23">
-        <v>198095</v>
+        <v>80380</v>
       </c>
       <c r="C23">
-        <v>125727</v>
+        <v>204251</v>
       </c>
       <c r="D23">
-        <v>501734</v>
+        <v>50147</v>
       </c>
       <c r="E23">
-        <v>326478</v>
+        <v>125191</v>
       </c>
       <c r="F23">
-        <v>303639</v>
+        <v>123871</v>
       </c>
       <c r="G23">
-        <v>153.28</v>
+        <v>154.11</v>
       </c>
       <c r="H23">
-        <v>200751</v>
+        <v>75044</v>
       </c>
       <c r="I23">
-        <v>159.67</v>
+        <v>149.65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="B24">
-        <v>383216</v>
+        <v>198095</v>
       </c>
       <c r="C24">
-        <v>226234</v>
+        <v>501734</v>
       </c>
       <c r="D24">
-        <v>5898132</v>
+        <v>125727</v>
       </c>
       <c r="E24">
-        <v>1994520</v>
+        <v>326478</v>
       </c>
       <c r="F24">
-        <v>5514916</v>
+        <v>303639</v>
       </c>
       <c r="G24">
-        <v>1439.11</v>
+        <v>153.28</v>
       </c>
       <c r="H24">
-        <v>1768286</v>
+        <v>200751</v>
       </c>
       <c r="I24">
-        <v>781.62</v>
+        <v>159.67</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B25">
-        <v>298475</v>
+        <v>383216</v>
       </c>
       <c r="C25">
-        <v>270349</v>
+        <v>5898132</v>
       </c>
       <c r="D25">
-        <v>594845</v>
+        <v>226234</v>
       </c>
       <c r="E25">
-        <v>450933</v>
+        <v>1994520</v>
       </c>
       <c r="F25">
-        <v>296370</v>
+        <v>5514916</v>
       </c>
       <c r="G25">
-        <v>99.29000000000001</v>
+        <v>1439.11</v>
       </c>
       <c r="H25">
-        <v>180584</v>
+        <v>1768286</v>
       </c>
       <c r="I25">
-        <v>66.8</v>
+        <v>781.62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NV</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="B26">
-        <v>382833</v>
+        <v>298475</v>
       </c>
       <c r="C26">
-        <v>342943</v>
+        <v>594845</v>
       </c>
       <c r="D26">
-        <v>1704780</v>
+        <v>270349</v>
       </c>
       <c r="E26">
-        <v>453738</v>
+        <v>450933</v>
       </c>
       <c r="F26">
-        <v>1321947</v>
+        <v>296370</v>
       </c>
       <c r="G26">
-        <v>345.31</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="H26">
-        <v>110795</v>
+        <v>180584</v>
       </c>
       <c r="I26">
-        <v>32.31</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>NV</t>
         </is>
       </c>
       <c r="B27">
-        <v>1510040</v>
+        <v>382833</v>
       </c>
       <c r="C27">
-        <v>981307</v>
+        <v>1704780</v>
       </c>
       <c r="D27">
-        <v>2640342</v>
+        <v>342943</v>
       </c>
       <c r="E27">
-        <v>1611784</v>
+        <v>453738</v>
       </c>
       <c r="F27">
-        <v>1130302</v>
+        <v>1321947</v>
       </c>
       <c r="G27">
-        <v>74.84999999999999</v>
+        <v>345.31</v>
       </c>
       <c r="H27">
-        <v>630477</v>
+        <v>110795</v>
       </c>
       <c r="I27">
-        <v>64.25</v>
+        <v>32.31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>1510040</v>
+      </c>
+      <c r="C28">
+        <v>2640342</v>
       </c>
       <c r="D28">
-        <v>326090</v>
+        <v>981307</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1611784</v>
+      </c>
+      <c r="F28">
+        <v>1130302</v>
+      </c>
+      <c r="G28">
+        <v>74.84999999999999</v>
+      </c>
+      <c r="H28">
+        <v>630477</v>
+      </c>
+      <c r="I28">
+        <v>64.25</v>
       </c>
     </row>
     <row r="29">
@@ -1215,10 +1215,10 @@
         <v>528088</v>
       </c>
       <c r="C29">
+        <v>486815</v>
+      </c>
+      <c r="D29">
         <v>528018</v>
-      </c>
-      <c r="D29">
-        <v>486815</v>
       </c>
       <c r="E29">
         <v>486815</v>
@@ -1239,337 +1239,363 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PA</t>
-        </is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>33788</v>
+      </c>
+      <c r="C30">
+        <v>233604</v>
       </c>
       <c r="D30">
-        <v>2913035</v>
+        <v>13008</v>
       </c>
       <c r="E30">
-        <v>1324715</v>
+        <v>58703</v>
+      </c>
+      <c r="F30">
+        <v>199816</v>
+      </c>
+      <c r="G30">
+        <v>591.38</v>
+      </c>
+      <c r="H30">
+        <v>45695</v>
+      </c>
+      <c r="I30">
+        <v>351.28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B31">
-        <v>33788</v>
+        <v>1153458</v>
       </c>
       <c r="C31">
-        <v>13008</v>
+        <v>1151475</v>
       </c>
       <c r="D31">
-        <v>233604</v>
+        <v>1153431</v>
       </c>
       <c r="E31">
-        <v>58703</v>
+        <v>1151475</v>
       </c>
       <c r="F31">
-        <v>199816</v>
+        <v>-1983</v>
       </c>
       <c r="G31">
-        <v>591.38</v>
+        <v>-0.17</v>
       </c>
       <c r="H31">
-        <v>45695</v>
+        <v>-1956</v>
       </c>
       <c r="I31">
-        <v>351.28</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SD</t>
-        </is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>2115050</v>
+      </c>
+      <c r="C32">
+        <v>5443098</v>
       </c>
       <c r="D32">
-        <v>177966</v>
+        <v>2092390</v>
       </c>
       <c r="E32">
-        <v>148012</v>
+        <v>5443098</v>
+      </c>
+      <c r="F32">
+        <v>3328048</v>
+      </c>
+      <c r="G32">
+        <v>157.35</v>
+      </c>
+      <c r="H32">
+        <v>3350708</v>
+      </c>
+      <c r="I32">
+        <v>160.14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="B33">
-        <v>1153458</v>
+        <v>1016921</v>
       </c>
       <c r="C33">
-        <v>1153431</v>
+        <v>213235</v>
       </c>
       <c r="D33">
-        <v>1151475</v>
+        <v>244846</v>
       </c>
       <c r="E33">
-        <v>1151475</v>
+        <v>213235</v>
       </c>
       <c r="F33">
-        <v>-1983</v>
+        <v>-803686</v>
       </c>
       <c r="G33">
-        <v>-0.17</v>
+        <v>-79.03</v>
       </c>
       <c r="H33">
-        <v>-1956</v>
+        <v>-31611</v>
       </c>
       <c r="I33">
-        <v>-0.17</v>
+        <v>-12.91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="B34">
-        <v>2115050</v>
+        <v>423179</v>
       </c>
       <c r="C34">
-        <v>2092390</v>
+        <v>2086280</v>
       </c>
       <c r="D34">
-        <v>5443098</v>
+        <v>289561</v>
       </c>
       <c r="E34">
-        <v>5443098</v>
+        <v>1638921</v>
       </c>
       <c r="F34">
-        <v>3328048</v>
+        <v>1663101</v>
       </c>
       <c r="G34">
-        <v>157.35</v>
+        <v>393</v>
       </c>
       <c r="H34">
-        <v>3350708</v>
+        <v>1349360</v>
       </c>
       <c r="I34">
-        <v>160.14</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UT</t>
+          <t>VT</t>
         </is>
       </c>
       <c r="B35">
-        <v>1016921</v>
+        <v>65243</v>
       </c>
       <c r="C35">
-        <v>244846</v>
+        <v>425197</v>
       </c>
       <c r="D35">
-        <v>213235</v>
+        <v>43917</v>
       </c>
       <c r="E35">
-        <v>213235</v>
+        <v>166913</v>
       </c>
       <c r="F35">
-        <v>-803686</v>
+        <v>359954</v>
       </c>
       <c r="G35">
-        <v>-79.03</v>
+        <v>551.71</v>
       </c>
       <c r="H35">
-        <v>-31611</v>
+        <v>122996</v>
       </c>
       <c r="I35">
-        <v>-12.91</v>
+        <v>280.06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>WA</t>
         </is>
       </c>
       <c r="B36">
-        <v>423179</v>
+        <v>2095234</v>
       </c>
       <c r="C36">
-        <v>289561</v>
+        <v>1161480</v>
       </c>
       <c r="D36">
-        <v>2086280</v>
+        <v>785744</v>
       </c>
       <c r="E36">
-        <v>1638921</v>
+        <v>1049315</v>
       </c>
       <c r="F36">
-        <v>1663101</v>
+        <v>-933754</v>
       </c>
       <c r="G36">
-        <v>393</v>
+        <v>-44.57</v>
       </c>
       <c r="H36">
-        <v>1349360</v>
+        <v>263571</v>
       </c>
       <c r="I36">
-        <v>466</v>
+        <v>33.54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>VT</t>
+          <t>WI</t>
         </is>
       </c>
       <c r="B37">
-        <v>65243</v>
+        <v>522199</v>
       </c>
       <c r="C37">
-        <v>43917</v>
+        <v>1376055</v>
       </c>
       <c r="D37">
-        <v>425197</v>
+        <v>464968</v>
       </c>
       <c r="E37">
-        <v>166913</v>
+        <v>751288</v>
       </c>
       <c r="F37">
-        <v>359954</v>
+        <v>853856</v>
       </c>
       <c r="G37">
-        <v>551.71</v>
+        <v>163.51</v>
       </c>
       <c r="H37">
-        <v>122996</v>
+        <v>286320</v>
       </c>
       <c r="I37">
-        <v>280.06</v>
+        <v>61.58</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>WV</t>
         </is>
       </c>
       <c r="B38">
-        <v>2095234</v>
+        <v>66935</v>
       </c>
       <c r="C38">
-        <v>785744</v>
+        <v>179986</v>
       </c>
       <c r="D38">
-        <v>1161480</v>
+        <v>60078</v>
       </c>
       <c r="E38">
-        <v>1049315</v>
+        <v>139791</v>
       </c>
       <c r="F38">
-        <v>-933754</v>
+        <v>113051</v>
       </c>
       <c r="G38">
-        <v>-44.57</v>
+        <v>168.9</v>
       </c>
       <c r="H38">
-        <v>263571</v>
+        <v>79713</v>
       </c>
       <c r="I38">
-        <v>33.54</v>
+        <v>132.68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>WY</t>
         </is>
       </c>
       <c r="B39">
-        <v>522199</v>
+        <v>59810</v>
       </c>
       <c r="C39">
-        <v>464968</v>
+        <v>108497</v>
       </c>
       <c r="D39">
-        <v>1376055</v>
+        <v>45161</v>
       </c>
       <c r="E39">
-        <v>751288</v>
+        <v>86826</v>
       </c>
       <c r="F39">
-        <v>853856</v>
+        <v>48687</v>
       </c>
       <c r="G39">
-        <v>163.51</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="H39">
-        <v>286320</v>
+        <v>41665</v>
       </c>
       <c r="I39">
-        <v>61.58</v>
+        <v>92.26000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>WV</t>
-        </is>
-      </c>
-      <c r="B40">
-        <v>66935</v>
+          <t>CT</t>
+        </is>
       </c>
       <c r="C40">
-        <v>60078</v>
-      </c>
-      <c r="D40">
-        <v>179986</v>
+        <v>627481</v>
       </c>
       <c r="E40">
-        <v>139791</v>
-      </c>
-      <c r="F40">
-        <v>113051</v>
-      </c>
-      <c r="G40">
-        <v>168.9</v>
-      </c>
-      <c r="H40">
-        <v>79713</v>
-      </c>
-      <c r="I40">
-        <v>132.68</v>
+        <v>411574</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>WY</t>
-        </is>
-      </c>
-      <c r="B41">
-        <v>59810</v>
+          <t>OK</t>
+        </is>
       </c>
       <c r="C41">
-        <v>45161</v>
-      </c>
-      <c r="D41">
-        <v>108497</v>
+        <v>326090</v>
       </c>
       <c r="E41">
-        <v>86826</v>
-      </c>
-      <c r="F41">
-        <v>48687</v>
-      </c>
-      <c r="G41">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="H41">
-        <v>41665</v>
-      </c>
-      <c r="I41">
-        <v>92.26000000000001</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>2913035</v>
+      </c>
+      <c r="E42">
+        <v>1324715</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>177966</v>
+      </c>
+      <c r="E43">
+        <v>148012</v>
       </c>
     </row>
   </sheetData>

--- a/output/state_grandtots_bothyears_11daysout.xlsx
+++ b/output/state_grandtots_bothyears_11daysout.xlsx
@@ -1,21 +1,189 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GITREPOS\gh_kessler\earlyvoting_election2020\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91350579-E485-43C8-A2C5-2222AB02F52B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3000" yWindow="3070" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>total_requested_2016</t>
+  </si>
+  <si>
+    <t>total_requested_2020</t>
+  </si>
+  <si>
+    <t>total_returned_2016</t>
+  </si>
+  <si>
+    <t>total_returned_2020</t>
+  </si>
+  <si>
+    <t>diff_requested</t>
+  </si>
+  <si>
+    <t>pctchg_requested</t>
+  </si>
+  <si>
+    <t>diff_returned</t>
+  </si>
+  <si>
+    <t>pctchg_returned</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,6 +193,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,20 +224,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +330,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +382,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,1251 +575,1160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>total_requested_2016</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>total_requested_2020</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_returned_2016</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>total_returned_2020</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>diff_requested</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>pctchg_requested</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>diff_returned</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>pctchg_returned</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AK</t>
-        </is>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3">
         <v>45042</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>129533</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>28687</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>49655</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>84491</v>
       </c>
       <c r="G2">
         <v>187.58</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>20968</v>
       </c>
       <c r="I2">
         <v>73.09</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
         <v>266795</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>318602</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>266780</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>277162</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>51807</v>
       </c>
       <c r="G3">
-        <v>19.42</v>
-      </c>
-      <c r="H3">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="H3" s="3">
         <v>10382</v>
       </c>
       <c r="I3">
         <v>3.89</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AZ</t>
-        </is>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
         <v>2340508</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>3284338</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>995460</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>1310818</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>943830</v>
       </c>
       <c r="G4">
         <v>40.33</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>315358</v>
       </c>
       <c r="I4">
         <v>31.68</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
         <v>11178435</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>5080324</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>2480093</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>5080324</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>-6098111</v>
       </c>
       <c r="G5">
         <v>-54.55</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>2600231</v>
       </c>
       <c r="I5">
         <v>104.84</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
         <v>3167702</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>1271757</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>813678</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>1271757</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>-1895945</v>
       </c>
       <c r="G6">
         <v>-59.85</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>458079</v>
       </c>
       <c r="I6">
         <v>56.3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
         <v>21245</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>173228</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>15703</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>103597</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>151983</v>
       </c>
       <c r="G7">
         <v>715.38</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>87894</v>
       </c>
       <c r="I7">
         <v>559.73</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
         <v>4654451</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>6696516</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>3217937</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>4173722</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>2042065</v>
       </c>
       <c r="G8">
         <v>43.87</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>955785</v>
       </c>
       <c r="I8">
         <v>29.7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
         <v>1298213</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>2647203</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>1198262</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>1870473</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>1348990</v>
       </c>
       <c r="G9">
         <v>103.91</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>672211</v>
       </c>
       <c r="I9">
         <v>56.1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HI</t>
-        </is>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
         <v>46</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
         <v>540549</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>820240</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>405546</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>609019</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>279691</v>
       </c>
       <c r="G11">
         <v>51.74</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>203473</v>
       </c>
       <c r="I11">
         <v>50.17</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
         <v>144138</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>428347</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>112291</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>233679</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>284209</v>
       </c>
       <c r="G12">
         <v>197.18</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>121388</v>
       </c>
       <c r="I12">
         <v>108.1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
         <v>960015</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>2343725</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>697072</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>874521</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>1383710</v>
       </c>
       <c r="G13">
         <v>144.13</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>177449</v>
       </c>
       <c r="I13">
         <v>25.46</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
         <v>414548</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>375812</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>KS</t>
-        </is>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
         <v>302252</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>566120</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>204584</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>228913</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>263868</v>
       </c>
       <c r="G15">
         <v>87.3</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>24329</v>
       </c>
       <c r="I15">
         <v>11.89</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LA</t>
-        </is>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3">
         <v>296152</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>502791</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>296124</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>502791</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>206639</v>
       </c>
       <c r="G16">
         <v>69.77</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>206667</v>
       </c>
       <c r="I16">
-        <v>69.79000000000001</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MD</t>
-        </is>
-      </c>
-      <c r="B17">
+        <v>69.790000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3">
         <v>456737</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>1634824</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>357964</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>799532</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>1178087</v>
       </c>
       <c r="G17">
         <v>257.94</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>441568</v>
       </c>
       <c r="I17">
         <v>123.36</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ME</t>
-        </is>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3">
         <v>189054</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>402352</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>136150</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>271863</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>213298</v>
       </c>
       <c r="G18">
         <v>112.82</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>135713</v>
       </c>
       <c r="I18">
-        <v>99.68000000000001</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MI</t>
-        </is>
-      </c>
-      <c r="B19">
+        <v>99.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3">
         <v>1066154</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>3054940</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>659190</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>1925701</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>1988786</v>
       </c>
       <c r="G19">
         <v>186.54</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>1266511</v>
       </c>
       <c r="I19">
         <v>192.13</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>MN</t>
-        </is>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3">
         <v>276138</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>1121512</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>276105</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>1121512</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>845374</v>
       </c>
       <c r="G20">
         <v>306.14</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>845407</v>
       </c>
       <c r="I20">
         <v>306.19</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3">
         <v>325466</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>632967</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>178201</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>255748</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>307501</v>
       </c>
       <c r="G21">
         <v>94.48</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>77547</v>
       </c>
       <c r="I21">
         <v>43.52</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3">
         <v>1548337</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>2413084</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>1443495</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>2401839</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>864747</v>
       </c>
       <c r="G22">
         <v>55.85</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>958344</v>
       </c>
       <c r="I22">
         <v>66.39</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ND</t>
-        </is>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3">
         <v>80380</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>204251</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>50147</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>125191</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>123871</v>
       </c>
       <c r="G23">
-        <v>154.11</v>
-      </c>
-      <c r="H23">
+        <v>154.11000000000001</v>
+      </c>
+      <c r="H23" s="3">
         <v>75044</v>
       </c>
       <c r="I23">
         <v>149.65</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>NE</t>
-        </is>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3">
         <v>198095</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>501734</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>125727</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>326478</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>303639</v>
       </c>
       <c r="G24">
         <v>153.28</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>200751</v>
       </c>
       <c r="I24">
-        <v>159.67</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>NJ</t>
-        </is>
-      </c>
-      <c r="B25">
+        <v>159.66999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3">
         <v>383216</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>5898132</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>226234</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>1994520</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>5514916</v>
       </c>
       <c r="G25">
         <v>1439.11</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>1768286</v>
       </c>
       <c r="I25">
         <v>781.62</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="3">
         <v>298475</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>594845</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>270349</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>450933</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>296370</v>
       </c>
       <c r="G26">
-        <v>99.29000000000001</v>
-      </c>
-      <c r="H26">
+        <v>99.29</v>
+      </c>
+      <c r="H26" s="3">
         <v>180584</v>
       </c>
       <c r="I26">
         <v>66.8</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3">
         <v>382833</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>1704780</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>342943</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>453738</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>1321947</v>
       </c>
       <c r="G27">
         <v>345.31</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>110795</v>
       </c>
       <c r="I27">
         <v>32.31</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="3">
         <v>1510040</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>2640342</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>981307</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>1611784</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>1130302</v>
       </c>
       <c r="G28">
-        <v>74.84999999999999</v>
-      </c>
-      <c r="H28">
+        <v>74.849999999999994</v>
+      </c>
+      <c r="H28" s="3">
         <v>630477</v>
       </c>
       <c r="I28">
         <v>64.25</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="3">
         <v>528088</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>486815</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>528018</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>486815</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>-41273</v>
       </c>
       <c r="G29">
         <v>-7.82</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>-41203</v>
       </c>
       <c r="I29">
         <v>-7.8</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>RI</t>
-        </is>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="3">
         <v>33788</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>233604</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>13008</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>58703</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>199816</v>
       </c>
       <c r="G30">
         <v>591.38</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>45695</v>
       </c>
       <c r="I30">
         <v>351.28</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="3">
         <v>1153458</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>1151475</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>1153431</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>1151475</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>-1983</v>
       </c>
       <c r="G31">
         <v>-0.17</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>-1956</v>
       </c>
       <c r="I31">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="3">
         <v>2115050</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>5443098</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>2092390</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>5443098</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>3328048</v>
       </c>
       <c r="G32">
         <v>157.35</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>3350708</v>
       </c>
       <c r="I32">
-        <v>160.14</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="B33">
+        <v>160.13999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="3">
         <v>1016921</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>213235</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>244846</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>213235</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>-803686</v>
       </c>
       <c r="G33">
         <v>-79.03</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>-31611</v>
       </c>
       <c r="I33">
         <v>-12.91</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="3">
         <v>423179</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>2086280</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>289561</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>1638921</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>1663101</v>
       </c>
       <c r="G34">
         <v>393</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>1349360</v>
       </c>
       <c r="I34">
         <v>466</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="3">
         <v>65243</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>425197</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>43917</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>166913</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>359954</v>
       </c>
       <c r="G35">
         <v>551.71</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>122996</v>
       </c>
       <c r="I35">
         <v>280.06</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>WA</t>
-        </is>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="3">
         <v>2095234</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>1161480</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>785744</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>1049315</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>-933754</v>
       </c>
       <c r="G36">
         <v>-44.57</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <v>263571</v>
       </c>
       <c r="I36">
         <v>33.54</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>WI</t>
-        </is>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="3">
         <v>522199</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>1376055</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>464968</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>751288</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>853856</v>
       </c>
       <c r="G37">
         <v>163.51</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>286320</v>
       </c>
       <c r="I37">
         <v>61.58</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>WV</t>
-        </is>
-      </c>
-      <c r="B38">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="3">
         <v>66935</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>179986</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>60078</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>139791</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>113051</v>
       </c>
       <c r="G38">
         <v>168.9</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>79713</v>
       </c>
       <c r="I38">
         <v>132.68</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>WY</t>
-        </is>
-      </c>
-      <c r="B39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="3">
         <v>59810</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>108497</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>45161</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>86826</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>48687</v>
       </c>
       <c r="G39">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="H39">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="H39" s="3">
         <v>41665</v>
       </c>
       <c r="I39">
-        <v>92.26000000000001</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="C40">
+        <v>92.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="3">
         <v>627481</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>411574</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="C41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="3">
         <v>326090</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="C42">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="3">
         <v>2913035</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>1324715</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="C43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="3">
         <v>177966</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>148012</v>
       </c>
     </row>
